--- a/public/templates/academic_schedules_pontisis_teachers.xlsx
+++ b/public/templates/academic_schedules_pontisis_teachers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\dev\pontiapp-laravel\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796AEEC-B4E4-4AD6-BD7E-EF03422FBE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3D52F-E27C-41AF-A6D5-23D7C1CD758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Prog. Académico:</t>
   </si>
@@ -113,14 +113,23 @@
     <t>NO REGISTRA NOTAS</t>
   </si>
   <si>
-    <t>uni</t>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Curso Nombre</t>
+  </si>
+  <si>
+    <t>Docente Nombre</t>
+  </si>
+  <si>
+    <t>Carrera Nombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -132,8 +141,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +185,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -186,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +234,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -518,9 +562,14 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
+    <col min="11" max="11" width="42" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,6 +594,19 @@
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -560,7 +622,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
